--- a/BackTest/2020-01-16 BackTest AE.xlsx
+++ b/BackTest/2020-01-16 BackTest AE.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>26797.49841889169</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>26628.66931889169</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>163.9</v>
@@ -521,7 +521,7 @@
         <v>26628.66931889169</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>162.4</v>
@@ -562,7 +562,7 @@
         <v>27790.42831889169</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>162.4</v>
@@ -603,7 +603,7 @@
         <v>27433.42831889169</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>163.9</v>
@@ -644,7 +644,7 @@
         <v>27433.42831889169</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>163.4</v>
@@ -685,7 +685,7 @@
         <v>27572.97161889169</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>163.4</v>
@@ -726,7 +726,7 @@
         <v>27572.97161889169</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>163.5</v>
@@ -767,7 +767,7 @@
         <v>27588.26681889169</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>163.5</v>
@@ -808,7 +808,7 @@
         <v>24454.20991889169</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>164</v>
@@ -849,7 +849,7 @@
         <v>24755.47021889169</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>162.9</v>
@@ -890,7 +890,7 @@
         <v>22793.03661889169</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>164</v>
@@ -931,7 +931,7 @@
         <v>36839.10661889169</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>162.6</v>
@@ -972,7 +972,7 @@
         <v>22035.99951889169</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>163.4</v>
@@ -1013,7 +1013,7 @@
         <v>22410.31271889169</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>159.6</v>
@@ -1054,7 +1054,7 @@
         <v>22410.31271889169</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>161</v>
@@ -1095,7 +1095,7 @@
         <v>21960.31271889169</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>161</v>
@@ -1136,7 +1136,7 @@
         <v>22560.31271889169</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>160.8</v>
@@ -1177,7 +1177,7 @@
         <v>23310.31271889169</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>161.1</v>
@@ -1218,7 +1218,7 @@
         <v>23910.31271889169</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>163</v>
@@ -1259,7 +1259,7 @@
         <v>23910.31271889169</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>163.3</v>
@@ -1300,7 +1300,7 @@
         <v>23527.70401889169</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>163.3</v>
@@ -1341,7 +1341,7 @@
         <v>23527.70401889169</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>162.9</v>
@@ -1382,7 +1382,7 @@
         <v>23337.70401889169</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>162.9</v>
@@ -1423,7 +1423,7 @@
         <v>23937.70401889169</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>162.4</v>
@@ -1464,7 +1464,7 @@
         <v>23957.64801889169</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>163.2</v>
@@ -1505,7 +1505,7 @@
         <v>23908.76971889169</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>163.3</v>
@@ -1546,7 +1546,7 @@
         <v>23908.76971889169</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>163.2</v>
@@ -1587,7 +1587,7 @@
         <v>23718.76971889169</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>163.2</v>
@@ -1628,7 +1628,7 @@
         <v>24929.23491889169</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>162.2</v>
@@ -1669,7 +1669,7 @@
         <v>30778.62751889168</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>163.2</v>
@@ -1710,7 +1710,7 @@
         <v>30778.62751889168</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>163.3</v>
@@ -1751,7 +1751,7 @@
         <v>30778.62751889168</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>163.3</v>
@@ -1792,7 +1792,7 @@
         <v>30778.62751889168</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>163.3</v>
@@ -1833,7 +1833,7 @@
         <v>30928.62751889168</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>163.3</v>
@@ -1874,7 +1874,7 @@
         <v>33515.79601889168</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>163.4</v>
@@ -1915,7 +1915,7 @@
         <v>33411.77041889168</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>164</v>
@@ -1956,7 +1956,7 @@
         <v>31487.10371889168</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>163.6</v>
@@ -1997,7 +1997,7 @@
         <v>41897.10371889168</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>163</v>
@@ -2038,7 +2038,7 @@
         <v>39745.24051889168</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>165.2</v>
@@ -2079,7 +2079,7 @@
         <v>39231.81361889168</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>162.1</v>
@@ -2120,7 +2120,7 @@
         <v>39231.81361889168</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>162</v>
@@ -2161,7 +2161,7 @@
         <v>38626.60261889168</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>162</v>
@@ -2202,7 +2202,7 @@
         <v>38626.60261889168</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>161.9</v>
@@ -2243,7 +2243,7 @@
         <v>38699.78291889168</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
         <v>161.9</v>
@@ -2284,7 +2284,7 @@
         <v>36161.65591889168</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
         <v>163.6</v>
@@ -2325,7 +2325,7 @@
         <v>36143.20871889168</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
         <v>162</v>
@@ -2366,7 +2366,7 @@
         <v>35758.16291889168</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
         <v>161.9</v>
@@ -2407,7 +2407,7 @@
         <v>27280.40761889168</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
         <v>160.6</v>
@@ -2448,7 +2448,7 @@
         <v>27725.71401889168</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
         <v>159.3</v>
@@ -2489,7 +2489,7 @@
         <v>28556.06601889168</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
         <v>160.4</v>
@@ -2530,7 +2530,7 @@
         <v>29623.34996950896</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
         <v>161.9</v>
@@ -2571,7 +2571,7 @@
         <v>27985.06601889168</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v>162</v>
@@ -2612,7 +2612,7 @@
         <v>27985.06601889168</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
         <v>161.3</v>
@@ -2653,7 +2653,7 @@
         <v>27985.06601889168</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
         <v>161.3</v>
@@ -2694,7 +2694,7 @@
         <v>27985.06601889168</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
         <v>161.3</v>
@@ -2735,7 +2735,7 @@
         <v>27985.06601889168</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
         <v>161.3</v>
@@ -2776,7 +2776,7 @@
         <v>27985.06601889168</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
         <v>161.3</v>
@@ -2817,7 +2817,7 @@
         <v>28804.33201889168</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
         <v>161.3</v>
@@ -2858,7 +2858,7 @@
         <v>28804.33201889168</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
         <v>162</v>
@@ -2899,7 +2899,7 @@
         <v>33280.85601889168</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
         <v>162</v>
@@ -2940,7 +2940,7 @@
         <v>45061.73601889168</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
         <v>162.7</v>
@@ -2981,7 +2981,7 @@
         <v>45061.73601889168</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
         <v>164.5</v>
@@ -3022,7 +3022,7 @@
         <v>44646.86941889168</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
         <v>164.5</v>
@@ -3063,7 +3063,7 @@
         <v>41771.83041889168</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v>164.2</v>
@@ -3104,7 +3104,7 @@
         <v>41771.83041889168</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
         <v>162.8</v>
@@ -3145,7 +3145,7 @@
         <v>30307.59441889168</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
         <v>162.8</v>
@@ -3186,7 +3186,7 @@
         <v>30307.59441889168</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
         <v>161.3</v>
@@ -3227,7 +3227,7 @@
         <v>30307.59441889168</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
         <v>161.3</v>
@@ -3268,7 +3268,7 @@
         <v>26287.16241889168</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
         <v>161.3</v>
@@ -3309,7 +3309,7 @@
         <v>26287.16241889168</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
         <v>160.5</v>
@@ -3350,7 +3350,7 @@
         <v>25763.88371889168</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
         <v>160.5</v>
@@ -3391,7 +3391,7 @@
         <v>26098.95211889168</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
         <v>160.4</v>
@@ -3432,7 +3432,7 @@
         <v>26098.95211889168</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
         <v>161.3</v>
@@ -3473,7 +3473,7 @@
         <v>26098.95211889168</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
         <v>161.3</v>
@@ -3514,7 +3514,7 @@
         <v>26098.95211889168</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>161.3</v>
@@ -3555,7 +3555,7 @@
         <v>50468.63031889168</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
         <v>161.3</v>
@@ -3596,7 +3596,7 @@
         <v>59169.49181889168</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
         <v>164.4</v>
@@ -3637,7 +3637,7 @@
         <v>60050.71131889168</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
         <v>165.9</v>
@@ -3678,7 +3678,7 @@
         <v>60059.01131889168</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
         <v>166.5</v>
@@ -3719,7 +3719,7 @@
         <v>60059.01131889168</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
         <v>166.8</v>
@@ -3760,7 +3760,7 @@
         <v>60059.01131889168</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>166.8</v>
@@ -3801,7 +3801,7 @@
         <v>60059.01131889168</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
         <v>166.8</v>
@@ -3842,9 +3842,11 @@
         <v>60059.01131889168</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>166.8</v>
+      </c>
       <c r="J85" t="n">
         <v>163.9</v>
       </c>
@@ -3881,9 +3883,11 @@
         <v>60059.01131889168</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>166.8</v>
+      </c>
       <c r="J86" t="n">
         <v>163.9</v>
       </c>
@@ -3920,9 +3924,11 @@
         <v>60059.01131889168</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>166.8</v>
+      </c>
       <c r="J87" t="n">
         <v>163.9</v>
       </c>
@@ -3959,9 +3965,11 @@
         <v>60059.01131889168</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>166.8</v>
+      </c>
       <c r="J88" t="n">
         <v>163.9</v>
       </c>
@@ -3998,9 +4006,11 @@
         <v>55696.33311889168</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>166.8</v>
+      </c>
       <c r="J89" t="n">
         <v>163.9</v>
       </c>
@@ -4037,9 +4047,11 @@
         <v>55701.09131889167</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>165.7</v>
+      </c>
       <c r="J90" t="n">
         <v>163.9</v>
       </c>
@@ -4076,9 +4088,11 @@
         <v>44923.86071889167</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>166.6</v>
+      </c>
       <c r="J91" t="n">
         <v>163.9</v>
       </c>
@@ -4115,9 +4129,11 @@
         <v>44928.61891889167</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>164.6</v>
+      </c>
       <c r="J92" t="n">
         <v>163.9</v>
       </c>
@@ -4154,9 +4170,11 @@
         <v>44928.61891889167</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>166.6</v>
+      </c>
       <c r="J93" t="n">
         <v>163.9</v>
       </c>
@@ -4193,9 +4211,11 @@
         <v>44928.61891889167</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>166.6</v>
+      </c>
       <c r="J94" t="n">
         <v>163.9</v>
       </c>
@@ -4232,9 +4252,11 @@
         <v>50721.83041889167</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>166.6</v>
+      </c>
       <c r="J95" t="n">
         <v>163.9</v>
       </c>
@@ -4271,9 +4293,11 @@
         <v>54221.83041889167</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>168</v>
+      </c>
       <c r="J96" t="n">
         <v>163.9</v>
       </c>
@@ -4310,9 +4334,11 @@
         <v>54221.83041889167</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>168.7</v>
+      </c>
       <c r="J97" t="n">
         <v>163.9</v>
       </c>
@@ -4349,9 +4375,11 @@
         <v>110424.5490188917</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>168.7</v>
+      </c>
       <c r="J98" t="n">
         <v>163.9</v>
       </c>
@@ -4388,9 +4416,11 @@
         <v>110424.5490188917</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>169.4</v>
+      </c>
       <c r="J99" t="n">
         <v>163.9</v>
       </c>
@@ -4427,9 +4457,11 @@
         <v>110424.5490188917</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>169.4</v>
+      </c>
       <c r="J100" t="n">
         <v>163.9</v>
       </c>
@@ -4466,9 +4498,11 @@
         <v>108834.3067021068</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>169.4</v>
+      </c>
       <c r="J101" t="n">
         <v>163.9</v>
       </c>
@@ -4505,9 +4539,11 @@
         <v>107056.4565021068</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>169.2</v>
+      </c>
       <c r="J102" t="n">
         <v>163.9</v>
       </c>
@@ -4544,9 +4580,11 @@
         <v>107056.4565021068</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>166.6</v>
+      </c>
       <c r="J103" t="n">
         <v>163.9</v>
       </c>
@@ -4583,9 +4621,11 @@
         <v>107056.4565021068</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>166.6</v>
+      </c>
       <c r="J104" t="n">
         <v>163.9</v>
       </c>
@@ -4622,9 +4662,11 @@
         <v>106656.4565021068</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>166.6</v>
+      </c>
       <c r="J105" t="n">
         <v>163.9</v>
       </c>
@@ -4661,9 +4703,11 @@
         <v>106376.1146021068</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>166.5</v>
+      </c>
       <c r="J106" t="n">
         <v>163.9</v>
       </c>
@@ -4700,9 +4744,11 @@
         <v>106376.1146021068</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>165</v>
+      </c>
       <c r="J107" t="n">
         <v>163.9</v>
       </c>
@@ -4739,7 +4785,7 @@
         <v>95994.9767021068</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
         <v>165</v>
@@ -4780,9 +4826,11 @@
         <v>108468.2160021068</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>164</v>
+      </c>
       <c r="J109" t="n">
         <v>163.9</v>
       </c>
@@ -4819,9 +4867,11 @@
         <v>110846.2160021068</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>164.5</v>
+      </c>
       <c r="J110" t="n">
         <v>163.9</v>
       </c>
@@ -4858,9 +4908,11 @@
         <v>114224.7343021068</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>165</v>
+      </c>
       <c r="J111" t="n">
         <v>163.9</v>
       </c>
@@ -4897,9 +4949,11 @@
         <v>115075.7853021068</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>166.6</v>
+      </c>
       <c r="J112" t="n">
         <v>163.9</v>
       </c>
@@ -4936,9 +4990,11 @@
         <v>115228.8164021068</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>166.7</v>
+      </c>
       <c r="J113" t="n">
         <v>163.9</v>
       </c>
@@ -4975,9 +5031,11 @@
         <v>115228.8164021068</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>167.8</v>
+      </c>
       <c r="J114" t="n">
         <v>163.9</v>
       </c>
@@ -5014,9 +5072,11 @@
         <v>118989.3840853219</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>167.8</v>
+      </c>
       <c r="J115" t="n">
         <v>163.9</v>
       </c>
@@ -5053,9 +5113,11 @@
         <v>172718.7865853219</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>169.2</v>
+      </c>
       <c r="J116" t="n">
         <v>163.9</v>
       </c>
@@ -5092,9 +5154,11 @@
         <v>179678.6383853219</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>169.3</v>
+      </c>
       <c r="J117" t="n">
         <v>163.9</v>
       </c>
@@ -5287,9 +5351,11 @@
         <v>192088.8828853219</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>171</v>
+      </c>
       <c r="J122" t="n">
         <v>163.9</v>
       </c>
@@ -5326,9 +5392,11 @@
         <v>192088.8828853219</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>173.9</v>
+      </c>
       <c r="J123" t="n">
         <v>163.9</v>
       </c>
@@ -5482,9 +5550,11 @@
         <v>193951.0028853219</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>174.1</v>
+      </c>
       <c r="J127" t="n">
         <v>163.9</v>
       </c>
@@ -6925,7 +6995,7 @@
         <v>791805.7745301751</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="n">
@@ -7081,7 +7151,7 @@
         <v>777364.6089871491</v>
       </c>
       <c r="H168" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="n">
@@ -7089,15 +7159,13 @@
       </c>
       <c r="K168" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L168" t="n">
-        <v>1.323859060402685</v>
-      </c>
-      <c r="M168" t="n">
-        <v>1.00923645320197</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -7122,15 +7190,23 @@
         <v>764599.4189871491</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>163.9</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+        <v>1.301894447834045</v>
+      </c>
+      <c r="M169" t="n">
+        <v>1.00923645320197</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -7155,7 +7231,7 @@
         <v>764599.4189871491</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -7188,7 +7264,7 @@
         <v>762862.2207871492</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -7221,7 +7297,7 @@
         <v>762862.2207871492</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -7254,7 +7330,7 @@
         <v>761289.2209871492</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -7287,7 +7363,7 @@
         <v>810821.2736871492</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -7320,7 +7396,7 @@
         <v>805747.8211871492</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -7353,7 +7429,7 @@
         <v>768454.1250871492</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -7386,7 +7462,7 @@
         <v>772024.2161871492</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -7419,7 +7495,7 @@
         <v>787680.0445871492</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -7452,7 +7528,7 @@
         <v>787680.0445871492</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -7485,7 +7561,7 @@
         <v>781068.5632871492</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -7518,7 +7594,7 @@
         <v>781118.8302871492</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -7551,7 +7627,7 @@
         <v>751772.3626871492</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -7584,7 +7660,7 @@
         <v>751772.3626871492</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -7617,7 +7693,7 @@
         <v>737129.1042871492</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -7650,7 +7726,7 @@
         <v>737129.1042871492</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -7683,7 +7759,7 @@
         <v>730834.6654871491</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -7716,7 +7792,7 @@
         <v>735568.8748871492</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -7749,7 +7825,7 @@
         <v>734069.8934871492</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -7782,7 +7858,7 @@
         <v>746046.1249871491</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -7815,7 +7891,7 @@
         <v>750524.2172871492</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -7848,7 +7924,7 @@
         <v>755577.9748871492</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -7881,7 +7957,7 @@
         <v>757629.1736871492</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -7914,7 +7990,7 @@
         <v>757312.6948871491</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7947,7 +8023,7 @@
         <v>755870.7492871492</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7980,7 +8056,7 @@
         <v>752650.6804871492</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -8013,7 +8089,7 @@
         <v>709001.7902871491</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -8046,7 +8122,7 @@
         <v>709001.7902871491</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -8211,7 +8287,7 @@
         <v>646074.635687149</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -8244,7 +8320,7 @@
         <v>649133.214087149</v>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -8277,7 +8353,7 @@
         <v>648813.290687149</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -8310,7 +8386,7 @@
         <v>648813.290687149</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -8376,7 +8452,7 @@
         <v>628193.8299962954</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -8409,7 +8485,7 @@
         <v>628193.8299962954</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -8442,7 +8518,7 @@
         <v>628193.8299962954</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -8475,7 +8551,7 @@
         <v>627441.1255962953</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -8508,7 +8584,7 @@
         <v>621593.8959962954</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -8541,7 +8617,7 @@
         <v>637280.8284962954</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -8574,7 +8650,7 @@
         <v>637280.8284962954</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -8607,7 +8683,7 @@
         <v>637280.8284962954</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -8640,7 +8716,7 @@
         <v>637280.8284962954</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -8673,7 +8749,7 @@
         <v>635023.4874962954</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -8706,7 +8782,7 @@
         <v>635086.4273962954</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -8739,7 +8815,7 @@
         <v>608312.5199962953</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -8772,7 +8848,7 @@
         <v>597562.2709962954</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -8805,7 +8881,7 @@
         <v>587878.3944962954</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -8838,7 +8914,7 @@
         <v>584948.7392962953</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -9069,7 +9145,7 @@
         <v>603859.6484962953</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -9102,7 +9178,7 @@
         <v>603859.6484962953</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -12006,7 +12082,7 @@
         <v>660434.1499993892</v>
       </c>
       <c r="H317" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -12039,7 +12115,7 @@
         <v>662946.5029993892</v>
       </c>
       <c r="H318" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -12072,7 +12148,7 @@
         <v>664906.5654993892</v>
       </c>
       <c r="H319" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -12138,7 +12214,7 @@
         <v>664075.9972993892</v>
       </c>
       <c r="H321" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -12171,7 +12247,7 @@
         <v>664134.4238993892</v>
       </c>
       <c r="H322" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -12204,7 +12280,7 @@
         <v>659134.4238993892</v>
       </c>
       <c r="H323" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -12237,7 +12313,7 @@
         <v>659814.5334993892</v>
       </c>
       <c r="H324" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -12270,7 +12346,7 @@
         <v>659814.5334993892</v>
       </c>
       <c r="H325" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -12303,7 +12379,7 @@
         <v>663842.0688993892</v>
       </c>
       <c r="H326" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -12336,7 +12412,7 @@
         <v>659288.2330993892</v>
       </c>
       <c r="H327" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -12369,7 +12445,7 @@
         <v>659288.2330993892</v>
       </c>
       <c r="H328" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -12402,7 +12478,7 @@
         <v>659270.2611993892</v>
       </c>
       <c r="H329" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -12435,7 +12511,7 @@
         <v>659273.5926993892</v>
       </c>
       <c r="H330" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -12468,7 +12544,7 @@
         <v>656281.1448993892</v>
       </c>
       <c r="H331" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -12501,7 +12577,7 @@
         <v>651695.4992993892</v>
       </c>
       <c r="H332" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -12534,7 +12610,7 @@
         <v>651698.4992993892</v>
       </c>
       <c r="H333" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -12567,7 +12643,7 @@
         <v>652809.4992993892</v>
       </c>
       <c r="H334" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -12600,7 +12676,7 @@
         <v>657253.4992993892</v>
       </c>
       <c r="H335" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -12633,7 +12709,7 @@
         <v>647516.2770993892</v>
       </c>
       <c r="H336" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -12666,7 +12742,7 @@
         <v>646356.2745993893</v>
       </c>
       <c r="H337" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -12699,7 +12775,7 @@
         <v>650972.9366993892</v>
       </c>
       <c r="H338" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -12732,7 +12808,7 @@
         <v>655029.2595993893</v>
       </c>
       <c r="H339" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -12765,7 +12841,7 @@
         <v>656260.5143993893</v>
       </c>
       <c r="H340" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -12798,7 +12874,7 @@
         <v>642650.1939993893</v>
       </c>
       <c r="H341" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -12831,7 +12907,7 @@
         <v>641805.4772993893</v>
       </c>
       <c r="H342" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -12864,7 +12940,7 @@
         <v>642105.4772993893</v>
       </c>
       <c r="H343" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -12897,7 +12973,7 @@
         <v>642105.4772993893</v>
       </c>
       <c r="H344" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -12930,7 +13006,7 @@
         <v>642105.4772993893</v>
       </c>
       <c r="H345" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -12963,7 +13039,7 @@
         <v>634526.6159917697</v>
       </c>
       <c r="H346" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -12996,7 +13072,7 @@
         <v>642531.7964917697</v>
       </c>
       <c r="H347" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -13029,7 +13105,7 @@
         <v>642399.8306917697</v>
       </c>
       <c r="H348" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -13062,7 +13138,7 @@
         <v>639761.1558917697</v>
       </c>
       <c r="H349" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -13095,7 +13171,7 @@
         <v>642019.2786917697</v>
       </c>
       <c r="H350" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -13128,7 +13204,7 @@
         <v>642019.2786917697</v>
       </c>
       <c r="H351" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -13161,7 +13237,7 @@
         <v>641569.2786917697</v>
       </c>
       <c r="H352" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -13194,7 +13270,7 @@
         <v>640511.9531917697</v>
       </c>
       <c r="H353" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -13227,7 +13303,7 @@
         <v>640511.9531917697</v>
       </c>
       <c r="H354" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -13260,7 +13336,7 @@
         <v>640211.9531917697</v>
       </c>
       <c r="H355" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -13293,7 +13369,7 @@
         <v>642880.2791917697</v>
       </c>
       <c r="H356" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -13326,7 +13402,7 @@
         <v>638776.1938917696</v>
       </c>
       <c r="H357" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -13359,7 +13435,7 @@
         <v>638776.1938917696</v>
       </c>
       <c r="H358" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -13392,7 +13468,7 @@
         <v>635712.1324917696</v>
       </c>
       <c r="H359" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -13425,7 +13501,7 @@
         <v>636166.1859917697</v>
       </c>
       <c r="H360" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -13458,7 +13534,7 @@
         <v>636166.1859917697</v>
       </c>
       <c r="H361" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -13491,7 +13567,7 @@
         <v>636166.1859917697</v>
       </c>
       <c r="H362" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -13524,7 +13600,7 @@
         <v>626795.7164917697</v>
       </c>
       <c r="H363" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -13557,7 +13633,7 @@
         <v>629097.2347917696</v>
       </c>
       <c r="H364" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -13590,7 +13666,7 @@
         <v>630297.2347917696</v>
       </c>
       <c r="H365" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -13623,7 +13699,7 @@
         <v>630297.2347917696</v>
       </c>
       <c r="H366" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -13656,7 +13732,7 @@
         <v>630297.2347917696</v>
       </c>
       <c r="H367" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -13689,7 +13765,7 @@
         <v>630247.2347917696</v>
       </c>
       <c r="H368" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -13722,7 +13798,7 @@
         <v>630474.2064917696</v>
       </c>
       <c r="H369" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -13755,7 +13831,7 @@
         <v>634951.5008917697</v>
       </c>
       <c r="H370" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -13788,7 +13864,7 @@
         <v>634801.5008917697</v>
       </c>
       <c r="H371" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -13821,7 +13897,7 @@
         <v>634801.5008917697</v>
       </c>
       <c r="H372" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -13854,7 +13930,7 @@
         <v>640126.4173917697</v>
       </c>
       <c r="H373" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -13887,7 +13963,7 @@
         <v>638427.5656917697</v>
       </c>
       <c r="H374" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -13920,7 +13996,7 @@
         <v>638808.1139917697</v>
       </c>
       <c r="H375" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -13953,7 +14029,7 @@
         <v>542753.1848917698</v>
       </c>
       <c r="H376" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -13986,7 +14062,7 @@
         <v>537807.9147917698</v>
       </c>
       <c r="H377" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -14019,7 +14095,7 @@
         <v>525060.0472917698</v>
       </c>
       <c r="H378" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -14052,7 +14128,7 @@
         <v>525800.1173917698</v>
       </c>
       <c r="H379" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -14085,7 +14161,7 @@
         <v>516311.7640917698</v>
       </c>
       <c r="H380" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -14118,7 +14194,7 @@
         <v>516311.7640917698</v>
       </c>
       <c r="H381" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -14151,7 +14227,7 @@
         <v>517988.6994917698</v>
       </c>
       <c r="H382" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -14184,7 +14260,7 @@
         <v>517388.6994917698</v>
       </c>
       <c r="H383" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -14217,7 +14293,7 @@
         <v>515434.9109917697</v>
       </c>
       <c r="H384" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -14250,7 +14326,7 @@
         <v>482179.1894917698</v>
       </c>
       <c r="H385" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -14283,7 +14359,7 @@
         <v>489458.7853917698</v>
       </c>
       <c r="H386" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -14316,7 +14392,7 @@
         <v>475976.1396917698</v>
       </c>
       <c r="H387" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -14514,7 +14590,7 @@
         <v>549458.3346917699</v>
       </c>
       <c r="H393" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -14547,7 +14623,7 @@
         <v>541380.49269177</v>
       </c>
       <c r="H394" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -14580,7 +14656,7 @@
         <v>541569.59349177</v>
       </c>
       <c r="H395" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -14613,7 +14689,7 @@
         <v>541566.3056917699</v>
       </c>
       <c r="H396" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -14646,7 +14722,7 @@
         <v>541566.3056917699</v>
       </c>
       <c r="H397" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -15042,7 +15118,7 @@
         <v>566021.0717917702</v>
       </c>
       <c r="H409" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -15108,7 +15184,7 @@
         <v>566021.0717917702</v>
       </c>
       <c r="H411" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -15339,7 +15415,7 @@
         <v>546102.0402917702</v>
       </c>
       <c r="H418" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -15438,7 +15514,7 @@
         <v>513875.0680917702</v>
       </c>
       <c r="H421" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -15471,7 +15547,7 @@
         <v>505874.2509917702</v>
       </c>
       <c r="H422" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -15504,7 +15580,7 @@
         <v>505877.2509917702</v>
       </c>
       <c r="H423" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -15537,7 +15613,7 @@
         <v>505877.2509917702</v>
       </c>
       <c r="H424" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -15570,7 +15646,7 @@
         <v>505898.3509917702</v>
       </c>
       <c r="H425" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -15768,7 +15844,7 @@
         <v>509582.3805917702</v>
       </c>
       <c r="H431" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -15966,7 +16042,7 @@
         <v>507449.1285917702</v>
       </c>
       <c r="H437" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -15999,7 +16075,7 @@
         <v>505733.1836917702</v>
       </c>
       <c r="H438" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -16032,7 +16108,7 @@
         <v>505733.1836917702</v>
       </c>
       <c r="H439" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -16065,7 +16141,7 @@
         <v>504389.8596917702</v>
       </c>
       <c r="H440" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -16098,7 +16174,7 @@
         <v>499130.6593917701</v>
       </c>
       <c r="H441" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -16131,7 +16207,7 @@
         <v>497949.2228917701</v>
       </c>
       <c r="H442" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -16164,7 +16240,7 @@
         <v>497949.2228917701</v>
       </c>
       <c r="H443" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -16197,7 +16273,7 @@
         <v>498869.2228917701</v>
       </c>
       <c r="H444" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -16230,7 +16306,7 @@
         <v>509099.2228917701</v>
       </c>
       <c r="H445" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -16263,7 +16339,7 @@
         <v>492165.0793917701</v>
       </c>
       <c r="H446" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -16296,7 +16372,7 @@
         <v>498374.6843917701</v>
       </c>
       <c r="H447" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -16329,7 +16405,7 @@
         <v>497705.4659917701</v>
       </c>
       <c r="H448" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -16362,7 +16438,7 @@
         <v>502715.4659917701</v>
       </c>
       <c r="H449" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -16395,7 +16471,7 @@
         <v>502715.4659917701</v>
       </c>
       <c r="H450" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -16428,7 +16504,7 @@
         <v>523185.4659917701</v>
       </c>
       <c r="H451" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -16461,7 +16537,7 @@
         <v>530642.4659917702</v>
       </c>
       <c r="H452" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -16494,7 +16570,7 @@
         <v>522681.5318917701</v>
       </c>
       <c r="H453" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -16527,7 +16603,7 @@
         <v>532754.6809917701</v>
       </c>
       <c r="H454" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -16560,7 +16636,7 @@
         <v>532743.6809917701</v>
       </c>
       <c r="H455" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -16593,7 +16669,7 @@
         <v>532743.6809917701</v>
       </c>
       <c r="H456" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -16626,7 +16702,7 @@
         <v>545054.9899917701</v>
       </c>
       <c r="H457" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -16659,7 +16735,7 @@
         <v>545050.2139917702</v>
       </c>
       <c r="H458" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -16692,7 +16768,7 @@
         <v>535376.3078917701</v>
       </c>
       <c r="H459" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -16725,7 +16801,7 @@
         <v>495849.3665917701</v>
       </c>
       <c r="H460" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -16758,7 +16834,7 @@
         <v>491181.1019917701</v>
       </c>
       <c r="H461" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -16791,7 +16867,7 @@
         <v>500848.2516917702</v>
       </c>
       <c r="H462" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -17055,7 +17131,7 @@
         <v>502253.991505936</v>
       </c>
       <c r="H470" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -17088,7 +17164,7 @@
         <v>502253.991505936</v>
       </c>
       <c r="H471" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -17121,7 +17197,7 @@
         <v>503367.1148059359</v>
       </c>
       <c r="H472" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -17154,7 +17230,7 @@
         <v>503367.1148059359</v>
       </c>
       <c r="H473" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -17187,7 +17263,7 @@
         <v>497290.1148059359</v>
       </c>
       <c r="H474" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -17220,7 +17296,7 @@
         <v>498030.403305936</v>
       </c>
       <c r="H475" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -17253,7 +17329,7 @@
         <v>497760.765105936</v>
       </c>
       <c r="H476" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -17286,7 +17362,7 @@
         <v>502604.476505936</v>
       </c>
       <c r="H477" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -17319,7 +17395,7 @@
         <v>502610.269005936</v>
       </c>
       <c r="H478" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -17352,7 +17428,7 @@
         <v>522754.537405936</v>
       </c>
       <c r="H479" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -17385,7 +17461,7 @@
         <v>522754.537405936</v>
       </c>
       <c r="H480" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -17418,7 +17494,7 @@
         <v>522754.537405936</v>
       </c>
       <c r="H481" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -17451,7 +17527,7 @@
         <v>528224.537405936</v>
       </c>
       <c r="H482" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -17484,7 +17560,7 @@
         <v>523024.304005936</v>
       </c>
       <c r="H483" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -17517,7 +17593,7 @@
         <v>539074.087305936</v>
       </c>
       <c r="H484" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -17550,7 +17626,7 @@
         <v>539074.087305936</v>
       </c>
       <c r="H485" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -17583,7 +17659,7 @@
         <v>545599.771805936</v>
       </c>
       <c r="H486" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -17616,7 +17692,7 @@
         <v>545599.771805936</v>
       </c>
       <c r="H487" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -17649,7 +17725,7 @@
         <v>512346.594805936</v>
       </c>
       <c r="H488" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -17715,7 +17791,7 @@
         <v>491603.292005936</v>
       </c>
       <c r="H490" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -17748,7 +17824,7 @@
         <v>491106.867505936</v>
       </c>
       <c r="H491" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -17781,7 +17857,7 @@
         <v>492483.765805936</v>
       </c>
       <c r="H492" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -17814,7 +17890,7 @@
         <v>492483.765805936</v>
       </c>
       <c r="H493" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -17847,7 +17923,7 @@
         <v>490652.203605936</v>
       </c>
       <c r="H494" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -17880,7 +17956,7 @@
         <v>490363.046305936</v>
       </c>
       <c r="H495" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -18111,7 +18187,7 @@
         <v>497062.659305936</v>
       </c>
       <c r="H502" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -18144,7 +18220,7 @@
         <v>497054.969205936</v>
       </c>
       <c r="H503" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -18672,7 +18748,7 @@
         <v>504366.7117228783</v>
       </c>
       <c r="H519" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -18881,6 +18957,6 @@
       <c r="M525" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest AE.xlsx
+++ b/BackTest/2020-01-16 BackTest AE.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -3719,11 +3719,9 @@
         <v>60059.01131889168</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>166.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="n">
         <v>163.9</v>
       </c>
@@ -3760,11 +3758,9 @@
         <v>60059.01131889168</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>166.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="n">
         <v>163.9</v>
       </c>
@@ -3801,11 +3797,9 @@
         <v>60059.01131889168</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>166.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="n">
         <v>163.9</v>
       </c>
@@ -3842,11 +3836,9 @@
         <v>60059.01131889168</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>166.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="n">
         <v>163.9</v>
       </c>
@@ -3883,11 +3875,9 @@
         <v>60059.01131889168</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>166.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="n">
         <v>163.9</v>
       </c>
@@ -3924,11 +3914,9 @@
         <v>60059.01131889168</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>166.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="n">
         <v>163.9</v>
       </c>
@@ -3965,11 +3953,9 @@
         <v>60059.01131889168</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>166.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="n">
         <v>163.9</v>
       </c>
@@ -4006,11 +3992,9 @@
         <v>55696.33311889168</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>166.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="n">
         <v>163.9</v>
       </c>
@@ -4047,11 +4031,9 @@
         <v>55701.09131889167</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>165.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="n">
         <v>163.9</v>
       </c>
@@ -4088,11 +4070,9 @@
         <v>44923.86071889167</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>166.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="n">
         <v>163.9</v>
       </c>
@@ -4129,11 +4109,9 @@
         <v>44928.61891889167</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>164.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="n">
         <v>163.9</v>
       </c>
@@ -4170,11 +4148,9 @@
         <v>44928.61891889167</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>166.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="n">
         <v>163.9</v>
       </c>
@@ -4211,11 +4187,9 @@
         <v>44928.61891889167</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>166.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="n">
         <v>163.9</v>
       </c>
@@ -4252,11 +4226,9 @@
         <v>50721.83041889167</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>166.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="n">
         <v>163.9</v>
       </c>
@@ -4293,11 +4265,9 @@
         <v>54221.83041889167</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>168</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="n">
         <v>163.9</v>
       </c>
@@ -4334,11 +4304,9 @@
         <v>54221.83041889167</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>168.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="n">
         <v>163.9</v>
       </c>
@@ -4375,11 +4343,9 @@
         <v>110424.5490188917</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>168.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="n">
         <v>163.9</v>
       </c>
@@ -4416,11 +4382,9 @@
         <v>110424.5490188917</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>169.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="n">
         <v>163.9</v>
       </c>
@@ -4457,11 +4421,9 @@
         <v>110424.5490188917</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>169.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="n">
         <v>163.9</v>
       </c>
@@ -4498,11 +4460,9 @@
         <v>108834.3067021068</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>169.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="n">
         <v>163.9</v>
       </c>
@@ -4539,11 +4499,9 @@
         <v>107056.4565021068</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>169.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="n">
         <v>163.9</v>
       </c>
@@ -4580,11 +4538,9 @@
         <v>107056.4565021068</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>166.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="n">
         <v>163.9</v>
       </c>
@@ -4621,11 +4577,9 @@
         <v>107056.4565021068</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>166.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="n">
         <v>163.9</v>
       </c>
@@ -4662,11 +4616,9 @@
         <v>106656.4565021068</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>166.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="n">
         <v>163.9</v>
       </c>
@@ -4703,11 +4655,9 @@
         <v>106376.1146021068</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>166.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="n">
         <v>163.9</v>
       </c>
@@ -4744,11 +4694,9 @@
         <v>106376.1146021068</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>165</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="n">
         <v>163.9</v>
       </c>
@@ -4785,11 +4733,9 @@
         <v>95994.9767021068</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>165</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="n">
         <v>163.9</v>
       </c>
@@ -4826,11 +4772,9 @@
         <v>108468.2160021068</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>164</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="n">
         <v>163.9</v>
       </c>
@@ -4867,11 +4811,9 @@
         <v>110846.2160021068</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>164.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="n">
         <v>163.9</v>
       </c>
@@ -4908,11 +4850,9 @@
         <v>114224.7343021068</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>165</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="n">
         <v>163.9</v>
       </c>
@@ -4949,11 +4889,9 @@
         <v>115075.7853021068</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
-        <v>166.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="n">
         <v>163.9</v>
       </c>
@@ -4990,11 +4928,9 @@
         <v>115228.8164021068</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" t="n">
-        <v>166.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="n">
         <v>163.9</v>
       </c>
@@ -5031,11 +4967,9 @@
         <v>115228.8164021068</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>167.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="n">
         <v>163.9</v>
       </c>
@@ -5072,11 +5006,9 @@
         <v>118989.3840853219</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" t="n">
-        <v>167.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="n">
         <v>163.9</v>
       </c>
@@ -5113,11 +5045,9 @@
         <v>172718.7865853219</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" t="n">
-        <v>169.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="n">
         <v>163.9</v>
       </c>
@@ -5154,11 +5084,9 @@
         <v>179678.6383853219</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>169.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="n">
         <v>163.9</v>
       </c>
@@ -5351,11 +5279,9 @@
         <v>192088.8828853219</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
-      </c>
-      <c r="I122" t="n">
-        <v>171</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="n">
         <v>163.9</v>
       </c>
@@ -5392,11 +5318,9 @@
         <v>192088.8828853219</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
-      </c>
-      <c r="I123" t="n">
-        <v>173.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="n">
         <v>163.9</v>
       </c>
@@ -5550,11 +5474,9 @@
         <v>193951.0028853219</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
-      </c>
-      <c r="I127" t="n">
-        <v>174.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="n">
         <v>163.9</v>
       </c>
@@ -5903,7 +5825,7 @@
         <v>578485.1459476058</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="n">
@@ -5911,13 +5833,15 @@
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+        <v>1.166446003660769</v>
+      </c>
+      <c r="M136" t="n">
+        <v>1.00923645320197</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5942,17 +5866,11 @@
         <v>552340.8222476059</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>163.9</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5981,17 +5899,11 @@
         <v>611851.7834476059</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>163.9</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -6020,17 +5932,11 @@
         <v>595653.3892476059</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>163.9</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -6059,17 +5965,11 @@
         <v>582152.824818472</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>163.9</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -6098,17 +5998,11 @@
         <v>637573.8909184721</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>163.9</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -6137,17 +6031,11 @@
         <v>694567.1481184721</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>163.9</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -6176,17 +6064,11 @@
         <v>627478.5182060151</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>163.9</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -6215,17 +6097,11 @@
         <v>646713.9164060152</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>163.9</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -6254,17 +6130,11 @@
         <v>659212.1622060152</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>163.9</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -6293,17 +6163,11 @@
         <v>680787.0862060152</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>163.9</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -6332,17 +6196,11 @@
         <v>758827.0791060152</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>163.9</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -6371,17 +6229,11 @@
         <v>630845.9809060151</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>163.9</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6410,17 +6262,11 @@
         <v>626975.4407060151</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>163.9</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6449,17 +6295,11 @@
         <v>671818.0503060151</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>163.9</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6491,14 +6331,8 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>163.9</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6530,14 +6364,8 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>163.9</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6569,14 +6397,8 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>163.9</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6608,14 +6430,8 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>163.9</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6647,14 +6463,8 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>163.9</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6686,14 +6496,8 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>163.9</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6722,17 +6526,11 @@
         <v>684115.1506060151</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>163.9</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6761,17 +6559,11 @@
         <v>696775.2653060151</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>163.9</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6800,17 +6592,11 @@
         <v>694045.8619060152</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>163.9</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6839,17 +6625,11 @@
         <v>718136.2331060153</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>163.9</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6878,17 +6658,11 @@
         <v>741874.1183060153</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>163.9</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6917,17 +6691,11 @@
         <v>855504.7678301751</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>163.9</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6959,14 +6727,8 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>163.9</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6998,14 +6760,8 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>163.9</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -7037,14 +6793,8 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>163.9</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -7076,14 +6826,8 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>163.9</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -7115,14 +6859,8 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>163.9</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -7154,14 +6892,8 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>163.9</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -7193,20 +6925,12 @@
         <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>163.9</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
-        <v>1.301894447834045</v>
-      </c>
-      <c r="M169" t="n">
-        <v>1.00923645320197</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -7231,7 +6955,7 @@
         <v>764599.4189871491</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -7297,7 +7021,7 @@
         <v>762862.2207871492</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -7429,7 +7153,7 @@
         <v>768454.1250871492</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -7495,7 +7219,7 @@
         <v>787680.0445871492</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -7528,7 +7252,7 @@
         <v>787680.0445871492</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -7561,7 +7285,7 @@
         <v>781068.5632871492</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -7594,7 +7318,7 @@
         <v>781118.8302871492</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -7627,7 +7351,7 @@
         <v>751772.3626871492</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -7660,7 +7384,7 @@
         <v>751772.3626871492</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -7693,7 +7417,7 @@
         <v>737129.1042871492</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -7726,7 +7450,7 @@
         <v>737129.1042871492</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -7759,7 +7483,7 @@
         <v>730834.6654871491</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -7792,7 +7516,7 @@
         <v>735568.8748871492</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -7825,7 +7549,7 @@
         <v>734069.8934871492</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -7858,7 +7582,7 @@
         <v>746046.1249871491</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -7891,7 +7615,7 @@
         <v>750524.2172871492</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -7924,7 +7648,7 @@
         <v>755577.9748871492</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -7957,7 +7681,7 @@
         <v>757629.1736871492</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -7990,7 +7714,7 @@
         <v>757312.6948871491</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -8023,7 +7747,7 @@
         <v>755870.7492871492</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -8056,7 +7780,7 @@
         <v>752650.6804871492</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -8089,7 +7813,7 @@
         <v>709001.7902871491</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -8122,7 +7846,7 @@
         <v>709001.7902871491</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -8320,7 +8044,7 @@
         <v>649133.214087149</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -8353,7 +8077,7 @@
         <v>648813.290687149</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -8386,7 +8110,7 @@
         <v>648813.290687149</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -8452,7 +8176,7 @@
         <v>628193.8299962954</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -8485,7 +8209,7 @@
         <v>628193.8299962954</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -8518,7 +8242,7 @@
         <v>628193.8299962954</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -8551,7 +8275,7 @@
         <v>627441.1255962953</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -8584,7 +8308,7 @@
         <v>621593.8959962954</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -8617,7 +8341,7 @@
         <v>637280.8284962954</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -8650,7 +8374,7 @@
         <v>637280.8284962954</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -8683,7 +8407,7 @@
         <v>637280.8284962954</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -8716,7 +8440,7 @@
         <v>637280.8284962954</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -8749,7 +8473,7 @@
         <v>635023.4874962954</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -8782,7 +8506,7 @@
         <v>635086.4273962954</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -8815,7 +8539,7 @@
         <v>608312.5199962953</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -8848,7 +8572,7 @@
         <v>597562.2709962954</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -8881,7 +8605,7 @@
         <v>587878.3944962954</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -8914,7 +8638,7 @@
         <v>584948.7392962953</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -9145,7 +8869,7 @@
         <v>603859.6484962953</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -9178,7 +8902,7 @@
         <v>603859.6484962953</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -18957,6 +18681,6 @@
       <c r="M525" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest AE.xlsx
+++ b/BackTest/2020-01-16 BackTest AE.xlsx
@@ -3719,9 +3719,11 @@
         <v>60059.01131889168</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>166.8</v>
+      </c>
       <c r="J82" t="n">
         <v>163.9</v>
       </c>
@@ -3758,9 +3760,11 @@
         <v>60059.01131889168</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>166.8</v>
+      </c>
       <c r="J83" t="n">
         <v>163.9</v>
       </c>
@@ -3836,9 +3840,11 @@
         <v>60059.01131889168</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>166.8</v>
+      </c>
       <c r="J85" t="n">
         <v>163.9</v>
       </c>
@@ -5825,7 +5831,7 @@
         <v>578485.1459476058</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="n">
@@ -5833,15 +5839,13 @@
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L136" t="n">
-        <v>1.166446003660769</v>
-      </c>
-      <c r="M136" t="n">
-        <v>1.00923645320197</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5866,11 +5870,17 @@
         <v>552340.8222476059</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>163.9</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5899,11 +5909,17 @@
         <v>611851.7834476059</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>163.9</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5932,11 +5948,17 @@
         <v>595653.3892476059</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>163.9</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5965,11 +5987,17 @@
         <v>582152.824818472</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>163.9</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5998,11 +6026,17 @@
         <v>637573.8909184721</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>163.9</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -6031,11 +6065,17 @@
         <v>694567.1481184721</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>163.9</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -6064,11 +6104,17 @@
         <v>627478.5182060151</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>163.9</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -6097,11 +6143,17 @@
         <v>646713.9164060152</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>163.9</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -6130,11 +6182,17 @@
         <v>659212.1622060152</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>163.9</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -6163,11 +6221,17 @@
         <v>680787.0862060152</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>163.9</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -6196,11 +6260,17 @@
         <v>758827.0791060152</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>163.9</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -6229,11 +6299,17 @@
         <v>630845.9809060151</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>163.9</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6262,11 +6338,17 @@
         <v>626975.4407060151</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>163.9</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6295,11 +6377,17 @@
         <v>671818.0503060151</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>163.9</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6331,8 +6419,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>163.9</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6364,8 +6458,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>163.9</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6397,8 +6497,14 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>163.9</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6430,8 +6536,14 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>163.9</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6463,8 +6575,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>163.9</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6496,8 +6614,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>163.9</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6526,11 +6650,17 @@
         <v>684115.1506060151</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>163.9</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6559,11 +6689,17 @@
         <v>696775.2653060151</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>163.9</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6592,11 +6728,17 @@
         <v>694045.8619060152</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>163.9</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6625,11 +6767,17 @@
         <v>718136.2331060153</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>163.9</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6658,11 +6806,17 @@
         <v>741874.1183060153</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>163.9</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6691,11 +6845,17 @@
         <v>855504.7678301751</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>163.9</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6724,15 +6884,23 @@
         <v>786860.2983301751</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>163.9</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+        <v>1.294572910311165</v>
+      </c>
+      <c r="M163" t="n">
+        <v>1.00923645320197</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6757,7 +6925,7 @@
         <v>791805.7745301751</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6823,7 +6991,7 @@
         <v>840464.0150804763</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6856,7 +7024,7 @@
         <v>796424.5712804763</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6889,7 +7057,7 @@
         <v>777364.6089871491</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6955,7 +7123,7 @@
         <v>764599.4189871491</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -7021,7 +7189,7 @@
         <v>762862.2207871492</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -7054,7 +7222,7 @@
         <v>761289.2209871492</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -7120,7 +7288,7 @@
         <v>805747.8211871492</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -7186,7 +7354,7 @@
         <v>772024.2161871492</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
